--- a/results/carga_lenta.xlsx
+++ b/results/carga_lenta.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D225"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -408,10 +408,10 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
         <v>2</v>
-      </c>
-      <c r="C2">
-        <v>5</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -422,10 +422,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -436,10 +436,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -453,9 +453,3089 @@
         <v>4</v>
       </c>
       <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
         <v>18</v>
       </c>
-      <c r="D5">
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>9</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>15</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>9</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>9</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>9</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>24</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>10</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>23</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>10</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>16</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>11</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22">
+        <v>6</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>11</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>8</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>12</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>17</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>13</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <v>13</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>5</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
+        <v>14</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>24</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <v>14</v>
+      </c>
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28">
+        <v>18</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <v>15</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>20</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <v>15</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30">
+        <v>10</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
+        <v>16</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>9</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
+        <v>16</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <v>16</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33">
+        <v>22</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34">
+        <v>17</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34">
+        <v>17</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35">
+        <v>17</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+      <c r="C35">
+        <v>20</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36">
+        <v>18</v>
+      </c>
+      <c r="B36">
+        <v>4</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37">
+        <v>18</v>
+      </c>
+      <c r="B37">
+        <v>4</v>
+      </c>
+      <c r="C37">
+        <v>10</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38">
+        <v>19</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>7</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39">
+        <v>19</v>
+      </c>
+      <c r="B39">
+        <v>4</v>
+      </c>
+      <c r="C39">
+        <v>11</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40">
+        <v>20</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>17</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41">
+        <v>20</v>
+      </c>
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="C41">
+        <v>16</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42">
+        <v>21</v>
+      </c>
+      <c r="B42">
+        <v>3</v>
+      </c>
+      <c r="C42">
+        <v>6</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43">
+        <v>21</v>
+      </c>
+      <c r="B43">
+        <v>3</v>
+      </c>
+      <c r="C43">
+        <v>23</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44">
+        <v>22</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>12</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45">
+        <v>22</v>
+      </c>
+      <c r="B45">
+        <v>4</v>
+      </c>
+      <c r="C45">
+        <v>11</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46">
+        <v>23</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>4</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47">
+        <v>23</v>
+      </c>
+      <c r="B47">
+        <v>3</v>
+      </c>
+      <c r="C47">
+        <v>7</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48">
+        <v>24</v>
+      </c>
+      <c r="B48">
+        <v>4</v>
+      </c>
+      <c r="C48">
+        <v>7</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49">
+        <v>25</v>
+      </c>
+      <c r="B49">
+        <v>4</v>
+      </c>
+      <c r="C49">
+        <v>18</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50">
+        <v>26</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>4</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51">
+        <v>26</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>21</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52">
+        <v>27</v>
+      </c>
+      <c r="B52">
+        <v>3</v>
+      </c>
+      <c r="C52">
+        <v>14</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53">
+        <v>27</v>
+      </c>
+      <c r="B53">
+        <v>3</v>
+      </c>
+      <c r="C53">
+        <v>21</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54">
+        <v>28</v>
+      </c>
+      <c r="B54">
+        <v>3</v>
+      </c>
+      <c r="C54">
+        <v>12</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55">
+        <v>28</v>
+      </c>
+      <c r="B55">
+        <v>4</v>
+      </c>
+      <c r="C55">
+        <v>4</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56">
+        <v>28</v>
+      </c>
+      <c r="B56">
+        <v>4</v>
+      </c>
+      <c r="C56">
+        <v>22</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57">
+        <v>29</v>
+      </c>
+      <c r="B57">
+        <v>2</v>
+      </c>
+      <c r="C57">
+        <v>12</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58">
+        <v>30</v>
+      </c>
+      <c r="B58">
+        <v>3</v>
+      </c>
+      <c r="C58">
+        <v>9</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59">
+        <v>30</v>
+      </c>
+      <c r="B59">
+        <v>4</v>
+      </c>
+      <c r="C59">
+        <v>13</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60">
+        <v>30</v>
+      </c>
+      <c r="B60">
+        <v>4</v>
+      </c>
+      <c r="C60">
+        <v>22</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61">
+        <v>31</v>
+      </c>
+      <c r="B61">
+        <v>3</v>
+      </c>
+      <c r="C61">
+        <v>10</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62">
+        <v>31</v>
+      </c>
+      <c r="B62">
+        <v>4</v>
+      </c>
+      <c r="C62">
+        <v>21</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63">
+        <v>32</v>
+      </c>
+      <c r="B63">
+        <v>3</v>
+      </c>
+      <c r="C63">
+        <v>3</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64">
+        <v>32</v>
+      </c>
+      <c r="B64">
+        <v>3</v>
+      </c>
+      <c r="C64">
+        <v>17</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65">
+        <v>32</v>
+      </c>
+      <c r="B65">
+        <v>4</v>
+      </c>
+      <c r="C65">
+        <v>2</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66">
+        <v>33</v>
+      </c>
+      <c r="B66">
+        <v>3</v>
+      </c>
+      <c r="C66">
+        <v>10</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67">
+        <v>33</v>
+      </c>
+      <c r="B67">
+        <v>3</v>
+      </c>
+      <c r="C67">
+        <v>15</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68">
+        <v>33</v>
+      </c>
+      <c r="B68">
+        <v>4</v>
+      </c>
+      <c r="C68">
+        <v>7</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69">
+        <v>34</v>
+      </c>
+      <c r="B69">
+        <v>4</v>
+      </c>
+      <c r="C69">
+        <v>14</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70">
+        <v>34</v>
+      </c>
+      <c r="B70">
+        <v>4</v>
+      </c>
+      <c r="C70">
+        <v>16</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71">
+        <v>35</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71">
+        <v>18</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72">
+        <v>35</v>
+      </c>
+      <c r="B72">
+        <v>4</v>
+      </c>
+      <c r="C72">
+        <v>6</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73">
+        <v>36</v>
+      </c>
+      <c r="B73">
+        <v>4</v>
+      </c>
+      <c r="C73">
+        <v>9</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74">
+        <v>36</v>
+      </c>
+      <c r="B74">
+        <v>4</v>
+      </c>
+      <c r="C74">
+        <v>20</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75">
+        <v>37</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75">
+        <v>4</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76">
+        <v>37</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76">
+        <v>10</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77">
+        <v>38</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77">
+        <v>22</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78">
+        <v>38</v>
+      </c>
+      <c r="B78">
+        <v>4</v>
+      </c>
+      <c r="C78">
+        <v>2</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79">
+        <v>39</v>
+      </c>
+      <c r="B79">
+        <v>4</v>
+      </c>
+      <c r="C79">
+        <v>14</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80">
+        <v>39</v>
+      </c>
+      <c r="B80">
+        <v>4</v>
+      </c>
+      <c r="C80">
+        <v>15</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81">
+        <v>40</v>
+      </c>
+      <c r="B81">
+        <v>3</v>
+      </c>
+      <c r="C81">
+        <v>6</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82">
+        <v>40</v>
+      </c>
+      <c r="B82">
+        <v>4</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83">
+        <v>41</v>
+      </c>
+      <c r="B83">
+        <v>4</v>
+      </c>
+      <c r="C83">
+        <v>3</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84">
+        <v>41</v>
+      </c>
+      <c r="B84">
+        <v>4</v>
+      </c>
+      <c r="C84">
+        <v>19</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85">
+        <v>42</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85">
+        <v>2</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86">
+        <v>42</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86">
+        <v>20</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87">
+        <v>43</v>
+      </c>
+      <c r="B87">
+        <v>3</v>
+      </c>
+      <c r="C87">
+        <v>4</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88">
+        <v>43</v>
+      </c>
+      <c r="B88">
+        <v>4</v>
+      </c>
+      <c r="C88">
+        <v>15</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89">
+        <v>44</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
+      <c r="C89">
+        <v>7</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90">
+        <v>44</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90">
+        <v>19</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91">
+        <v>44</v>
+      </c>
+      <c r="B91">
+        <v>4</v>
+      </c>
+      <c r="C91">
+        <v>5</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92">
+        <v>45</v>
+      </c>
+      <c r="B92">
+        <v>2</v>
+      </c>
+      <c r="C92">
+        <v>7</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93">
+        <v>45</v>
+      </c>
+      <c r="B93">
+        <v>4</v>
+      </c>
+      <c r="C93">
+        <v>2</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94">
+        <v>45</v>
+      </c>
+      <c r="B94">
+        <v>4</v>
+      </c>
+      <c r="C94">
+        <v>13</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95">
+        <v>46</v>
+      </c>
+      <c r="B95">
+        <v>2</v>
+      </c>
+      <c r="C95">
+        <v>2</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96">
+        <v>46</v>
+      </c>
+      <c r="B96">
+        <v>3</v>
+      </c>
+      <c r="C96">
+        <v>18</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97">
+        <v>47</v>
+      </c>
+      <c r="B97">
+        <v>3</v>
+      </c>
+      <c r="C97">
+        <v>15</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98">
+        <v>47</v>
+      </c>
+      <c r="B98">
+        <v>3</v>
+      </c>
+      <c r="C98">
+        <v>20</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99">
+        <v>48</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+      <c r="C99">
+        <v>13</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100">
+        <v>48</v>
+      </c>
+      <c r="B100">
+        <v>4</v>
+      </c>
+      <c r="C100">
+        <v>18</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101">
+        <v>49</v>
+      </c>
+      <c r="B101">
+        <v>4</v>
+      </c>
+      <c r="C101">
+        <v>4</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102">
+        <v>49</v>
+      </c>
+      <c r="B102">
+        <v>4</v>
+      </c>
+      <c r="C102">
+        <v>5</v>
+      </c>
+      <c r="D102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103">
+        <v>50</v>
+      </c>
+      <c r="B103">
+        <v>3</v>
+      </c>
+      <c r="C103">
+        <v>6</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104">
+        <v>51</v>
+      </c>
+      <c r="B104">
+        <v>1</v>
+      </c>
+      <c r="C104">
+        <v>17</v>
+      </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105">
+        <v>51</v>
+      </c>
+      <c r="B105">
+        <v>1</v>
+      </c>
+      <c r="C105">
+        <v>20</v>
+      </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106">
+        <v>52</v>
+      </c>
+      <c r="B106">
+        <v>1</v>
+      </c>
+      <c r="C106">
+        <v>9</v>
+      </c>
+      <c r="D106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107">
+        <v>52</v>
+      </c>
+      <c r="B107">
+        <v>1</v>
+      </c>
+      <c r="C107">
+        <v>11</v>
+      </c>
+      <c r="D107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108">
+        <v>52</v>
+      </c>
+      <c r="B108">
+        <v>4</v>
+      </c>
+      <c r="C108">
+        <v>17</v>
+      </c>
+      <c r="D108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109">
+        <v>53</v>
+      </c>
+      <c r="B109">
+        <v>2</v>
+      </c>
+      <c r="C109">
+        <v>6</v>
+      </c>
+      <c r="D109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110">
+        <v>53</v>
+      </c>
+      <c r="B110">
+        <v>3</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+      <c r="D110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111">
+        <v>53</v>
+      </c>
+      <c r="B111">
+        <v>4</v>
+      </c>
+      <c r="C111">
+        <v>20</v>
+      </c>
+      <c r="D111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112">
+        <v>54</v>
+      </c>
+      <c r="B112">
+        <v>1</v>
+      </c>
+      <c r="C112">
+        <v>1</v>
+      </c>
+      <c r="D112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113">
+        <v>54</v>
+      </c>
+      <c r="B113">
+        <v>3</v>
+      </c>
+      <c r="C113">
+        <v>11</v>
+      </c>
+      <c r="D113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114">
+        <v>55</v>
+      </c>
+      <c r="B114">
+        <v>1</v>
+      </c>
+      <c r="C114">
+        <v>16</v>
+      </c>
+      <c r="D114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115">
+        <v>55</v>
+      </c>
+      <c r="B115">
+        <v>4</v>
+      </c>
+      <c r="C115">
+        <v>8</v>
+      </c>
+      <c r="D115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116">
+        <v>55</v>
+      </c>
+      <c r="B116">
+        <v>4</v>
+      </c>
+      <c r="C116">
+        <v>21</v>
+      </c>
+      <c r="D116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117">
+        <v>56</v>
+      </c>
+      <c r="B117">
+        <v>3</v>
+      </c>
+      <c r="C117">
+        <v>4</v>
+      </c>
+      <c r="D117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118">
+        <v>56</v>
+      </c>
+      <c r="B118">
+        <v>3</v>
+      </c>
+      <c r="C118">
+        <v>19</v>
+      </c>
+      <c r="D118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119">
+        <v>57</v>
+      </c>
+      <c r="B119">
+        <v>1</v>
+      </c>
+      <c r="C119">
+        <v>12</v>
+      </c>
+      <c r="D119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120">
+        <v>57</v>
+      </c>
+      <c r="B120">
+        <v>2</v>
+      </c>
+      <c r="C120">
+        <v>17</v>
+      </c>
+      <c r="D120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121">
+        <v>57</v>
+      </c>
+      <c r="B121">
+        <v>2</v>
+      </c>
+      <c r="C121">
+        <v>22</v>
+      </c>
+      <c r="D121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122">
+        <v>58</v>
+      </c>
+      <c r="B122">
+        <v>1</v>
+      </c>
+      <c r="C122">
+        <v>24</v>
+      </c>
+      <c r="D122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123">
+        <v>58</v>
+      </c>
+      <c r="B123">
+        <v>4</v>
+      </c>
+      <c r="C123">
+        <v>22</v>
+      </c>
+      <c r="D123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124">
+        <v>59</v>
+      </c>
+      <c r="B124">
+        <v>1</v>
+      </c>
+      <c r="C124">
+        <v>16</v>
+      </c>
+      <c r="D124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125">
+        <v>59</v>
+      </c>
+      <c r="B125">
+        <v>3</v>
+      </c>
+      <c r="C125">
+        <v>21</v>
+      </c>
+      <c r="D125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126">
+        <v>60</v>
+      </c>
+      <c r="B126">
+        <v>1</v>
+      </c>
+      <c r="C126">
+        <v>13</v>
+      </c>
+      <c r="D126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127">
+        <v>60</v>
+      </c>
+      <c r="B127">
+        <v>2</v>
+      </c>
+      <c r="C127">
+        <v>3</v>
+      </c>
+      <c r="D127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128">
+        <v>61</v>
+      </c>
+      <c r="B128">
+        <v>2</v>
+      </c>
+      <c r="C128">
+        <v>14</v>
+      </c>
+      <c r="D128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129">
+        <v>61</v>
+      </c>
+      <c r="B129">
+        <v>2</v>
+      </c>
+      <c r="C129">
+        <v>21</v>
+      </c>
+      <c r="D129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130">
+        <v>62</v>
+      </c>
+      <c r="B130">
+        <v>4</v>
+      </c>
+      <c r="C130">
+        <v>1</v>
+      </c>
+      <c r="D130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131">
+        <v>62</v>
+      </c>
+      <c r="B131">
+        <v>4</v>
+      </c>
+      <c r="C131">
+        <v>4</v>
+      </c>
+      <c r="D131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132">
+        <v>62</v>
+      </c>
+      <c r="B132">
+        <v>4</v>
+      </c>
+      <c r="C132">
+        <v>15</v>
+      </c>
+      <c r="D132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133">
+        <v>63</v>
+      </c>
+      <c r="B133">
+        <v>1</v>
+      </c>
+      <c r="C133">
+        <v>15</v>
+      </c>
+      <c r="D133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134">
+        <v>63</v>
+      </c>
+      <c r="B134">
+        <v>3</v>
+      </c>
+      <c r="C134">
+        <v>22</v>
+      </c>
+      <c r="D134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135">
+        <v>63</v>
+      </c>
+      <c r="B135">
+        <v>4</v>
+      </c>
+      <c r="C135">
+        <v>23</v>
+      </c>
+      <c r="D135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136">
+        <v>64</v>
+      </c>
+      <c r="B136">
+        <v>1</v>
+      </c>
+      <c r="C136">
+        <v>14</v>
+      </c>
+      <c r="D136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137">
+        <v>64</v>
+      </c>
+      <c r="B137">
+        <v>1</v>
+      </c>
+      <c r="C137">
+        <v>15</v>
+      </c>
+      <c r="D137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138">
+        <v>64</v>
+      </c>
+      <c r="B138">
+        <v>4</v>
+      </c>
+      <c r="C138">
+        <v>16</v>
+      </c>
+      <c r="D138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139">
+        <v>65</v>
+      </c>
+      <c r="B139">
+        <v>2</v>
+      </c>
+      <c r="C139">
+        <v>15</v>
+      </c>
+      <c r="D139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140">
+        <v>65</v>
+      </c>
+      <c r="B140">
+        <v>4</v>
+      </c>
+      <c r="C140">
+        <v>17</v>
+      </c>
+      <c r="D140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141">
+        <v>66</v>
+      </c>
+      <c r="B141">
+        <v>1</v>
+      </c>
+      <c r="C141">
+        <v>19</v>
+      </c>
+      <c r="D141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142">
+        <v>66</v>
+      </c>
+      <c r="B142">
+        <v>2</v>
+      </c>
+      <c r="C142">
+        <v>16</v>
+      </c>
+      <c r="D142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143">
+        <v>67</v>
+      </c>
+      <c r="B143">
+        <v>3</v>
+      </c>
+      <c r="C143">
+        <v>16</v>
+      </c>
+      <c r="D143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144">
+        <v>67</v>
+      </c>
+      <c r="B144">
+        <v>4</v>
+      </c>
+      <c r="C144">
+        <v>19</v>
+      </c>
+      <c r="D144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145">
+        <v>68</v>
+      </c>
+      <c r="B145">
+        <v>1</v>
+      </c>
+      <c r="C145">
+        <v>14</v>
+      </c>
+      <c r="D145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146">
+        <v>68</v>
+      </c>
+      <c r="B146">
+        <v>3</v>
+      </c>
+      <c r="C146">
+        <v>17</v>
+      </c>
+      <c r="D146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147">
+        <v>68</v>
+      </c>
+      <c r="B147">
+        <v>4</v>
+      </c>
+      <c r="C147">
+        <v>13</v>
+      </c>
+      <c r="D147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148">
+        <v>69</v>
+      </c>
+      <c r="B148">
+        <v>2</v>
+      </c>
+      <c r="C148">
+        <v>18</v>
+      </c>
+      <c r="D148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149">
+        <v>69</v>
+      </c>
+      <c r="B149">
+        <v>3</v>
+      </c>
+      <c r="C149">
+        <v>22</v>
+      </c>
+      <c r="D149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150">
+        <v>70</v>
+      </c>
+      <c r="B150">
+        <v>3</v>
+      </c>
+      <c r="C150">
+        <v>10</v>
+      </c>
+      <c r="D150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151">
+        <v>70</v>
+      </c>
+      <c r="B151">
+        <v>4</v>
+      </c>
+      <c r="C151">
+        <v>7</v>
+      </c>
+      <c r="D151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152">
+        <v>71</v>
+      </c>
+      <c r="B152">
+        <v>4</v>
+      </c>
+      <c r="C152">
+        <v>5</v>
+      </c>
+      <c r="D152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153">
+        <v>71</v>
+      </c>
+      <c r="B153">
+        <v>4</v>
+      </c>
+      <c r="C153">
+        <v>17</v>
+      </c>
+      <c r="D153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154">
+        <v>72</v>
+      </c>
+      <c r="B154">
+        <v>1</v>
+      </c>
+      <c r="C154">
+        <v>5</v>
+      </c>
+      <c r="D154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155">
+        <v>72</v>
+      </c>
+      <c r="B155">
+        <v>3</v>
+      </c>
+      <c r="C155">
+        <v>3</v>
+      </c>
+      <c r="D155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156">
+        <v>72</v>
+      </c>
+      <c r="B156">
+        <v>4</v>
+      </c>
+      <c r="C156">
+        <v>13</v>
+      </c>
+      <c r="D156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157">
+        <v>73</v>
+      </c>
+      <c r="B157">
+        <v>2</v>
+      </c>
+      <c r="C157">
+        <v>9</v>
+      </c>
+      <c r="D157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158">
+        <v>73</v>
+      </c>
+      <c r="B158">
+        <v>4</v>
+      </c>
+      <c r="C158">
+        <v>11</v>
+      </c>
+      <c r="D158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159">
+        <v>74</v>
+      </c>
+      <c r="B159">
+        <v>1</v>
+      </c>
+      <c r="C159">
+        <v>14</v>
+      </c>
+      <c r="D159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160">
+        <v>74</v>
+      </c>
+      <c r="B160">
+        <v>3</v>
+      </c>
+      <c r="C160">
+        <v>12</v>
+      </c>
+      <c r="D160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161">
+        <v>74</v>
+      </c>
+      <c r="B161">
+        <v>3</v>
+      </c>
+      <c r="C161">
+        <v>21</v>
+      </c>
+      <c r="D161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162">
+        <v>75</v>
+      </c>
+      <c r="B162">
+        <v>1</v>
+      </c>
+      <c r="C162">
+        <v>12</v>
+      </c>
+      <c r="D162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163">
+        <v>75</v>
+      </c>
+      <c r="B163">
+        <v>3</v>
+      </c>
+      <c r="C163">
+        <v>13</v>
+      </c>
+      <c r="D163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164">
+        <v>76</v>
+      </c>
+      <c r="B164">
+        <v>1</v>
+      </c>
+      <c r="C164">
+        <v>3</v>
+      </c>
+      <c r="D164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165">
+        <v>76</v>
+      </c>
+      <c r="B165">
+        <v>4</v>
+      </c>
+      <c r="C165">
+        <v>9</v>
+      </c>
+      <c r="D165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166">
+        <v>76</v>
+      </c>
+      <c r="B166">
+        <v>4</v>
+      </c>
+      <c r="C166">
+        <v>14</v>
+      </c>
+      <c r="D166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167">
+        <v>77</v>
+      </c>
+      <c r="B167">
+        <v>1</v>
+      </c>
+      <c r="C167">
+        <v>16</v>
+      </c>
+      <c r="D167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168">
+        <v>77</v>
+      </c>
+      <c r="B168">
+        <v>4</v>
+      </c>
+      <c r="C168">
+        <v>19</v>
+      </c>
+      <c r="D168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169">
+        <v>78</v>
+      </c>
+      <c r="B169">
+        <v>4</v>
+      </c>
+      <c r="C169">
+        <v>3</v>
+      </c>
+      <c r="D169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170">
+        <v>78</v>
+      </c>
+      <c r="B170">
+        <v>4</v>
+      </c>
+      <c r="C170">
+        <v>19</v>
+      </c>
+      <c r="D170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171">
+        <v>79</v>
+      </c>
+      <c r="B171">
+        <v>1</v>
+      </c>
+      <c r="C171">
+        <v>9</v>
+      </c>
+      <c r="D171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172">
+        <v>79</v>
+      </c>
+      <c r="B172">
+        <v>1</v>
+      </c>
+      <c r="C172">
+        <v>11</v>
+      </c>
+      <c r="D172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173">
+        <v>80</v>
+      </c>
+      <c r="B173">
+        <v>3</v>
+      </c>
+      <c r="C173">
+        <v>1</v>
+      </c>
+      <c r="D173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174">
+        <v>80</v>
+      </c>
+      <c r="B174">
+        <v>4</v>
+      </c>
+      <c r="C174">
+        <v>10</v>
+      </c>
+      <c r="D174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175">
+        <v>80</v>
+      </c>
+      <c r="B175">
+        <v>4</v>
+      </c>
+      <c r="C175">
+        <v>15</v>
+      </c>
+      <c r="D175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176">
+        <v>81</v>
+      </c>
+      <c r="B176">
+        <v>2</v>
+      </c>
+      <c r="C176">
+        <v>19</v>
+      </c>
+      <c r="D176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177">
+        <v>81</v>
+      </c>
+      <c r="B177">
+        <v>3</v>
+      </c>
+      <c r="C177">
+        <v>14</v>
+      </c>
+      <c r="D177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178">
+        <v>82</v>
+      </c>
+      <c r="B178">
+        <v>1</v>
+      </c>
+      <c r="C178">
+        <v>8</v>
+      </c>
+      <c r="D178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179">
+        <v>82</v>
+      </c>
+      <c r="B179">
+        <v>3</v>
+      </c>
+      <c r="C179">
+        <v>14</v>
+      </c>
+      <c r="D179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180">
+        <v>83</v>
+      </c>
+      <c r="B180">
+        <v>1</v>
+      </c>
+      <c r="C180">
+        <v>6</v>
+      </c>
+      <c r="D180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181">
+        <v>83</v>
+      </c>
+      <c r="B181">
+        <v>1</v>
+      </c>
+      <c r="C181">
+        <v>10</v>
+      </c>
+      <c r="D181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182">
+        <v>83</v>
+      </c>
+      <c r="B182">
+        <v>2</v>
+      </c>
+      <c r="C182">
+        <v>5</v>
+      </c>
+      <c r="D182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183">
+        <v>84</v>
+      </c>
+      <c r="B183">
+        <v>3</v>
+      </c>
+      <c r="C183">
+        <v>22</v>
+      </c>
+      <c r="D183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184">
+        <v>84</v>
+      </c>
+      <c r="B184">
+        <v>4</v>
+      </c>
+      <c r="C184">
+        <v>12</v>
+      </c>
+      <c r="D184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185">
+        <v>84</v>
+      </c>
+      <c r="B185">
+        <v>4</v>
+      </c>
+      <c r="C185">
+        <v>16</v>
+      </c>
+      <c r="D185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186">
+        <v>85</v>
+      </c>
+      <c r="B186">
+        <v>1</v>
+      </c>
+      <c r="C186">
+        <v>21</v>
+      </c>
+      <c r="D186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187">
+        <v>85</v>
+      </c>
+      <c r="B187">
+        <v>3</v>
+      </c>
+      <c r="C187">
+        <v>7</v>
+      </c>
+      <c r="D187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188">
+        <v>85</v>
+      </c>
+      <c r="B188">
+        <v>4</v>
+      </c>
+      <c r="C188">
+        <v>9</v>
+      </c>
+      <c r="D188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189">
+        <v>86</v>
+      </c>
+      <c r="B189">
+        <v>1</v>
+      </c>
+      <c r="C189">
+        <v>24</v>
+      </c>
+      <c r="D189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190">
+        <v>86</v>
+      </c>
+      <c r="B190">
+        <v>4</v>
+      </c>
+      <c r="C190">
+        <v>6</v>
+      </c>
+      <c r="D190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191">
+        <v>87</v>
+      </c>
+      <c r="B191">
+        <v>3</v>
+      </c>
+      <c r="C191">
+        <v>4</v>
+      </c>
+      <c r="D191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192">
+        <v>87</v>
+      </c>
+      <c r="B192">
+        <v>3</v>
+      </c>
+      <c r="C192">
+        <v>8</v>
+      </c>
+      <c r="D192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193">
+        <v>88</v>
+      </c>
+      <c r="B193">
+        <v>1</v>
+      </c>
+      <c r="C193">
+        <v>11</v>
+      </c>
+      <c r="D193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194">
+        <v>88</v>
+      </c>
+      <c r="B194">
+        <v>3</v>
+      </c>
+      <c r="C194">
+        <v>18</v>
+      </c>
+      <c r="D194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195">
+        <v>88</v>
+      </c>
+      <c r="B195">
+        <v>4</v>
+      </c>
+      <c r="C195">
+        <v>12</v>
+      </c>
+      <c r="D195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196">
+        <v>89</v>
+      </c>
+      <c r="B196">
+        <v>4</v>
+      </c>
+      <c r="C196">
+        <v>8</v>
+      </c>
+      <c r="D196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197">
+        <v>89</v>
+      </c>
+      <c r="B197">
+        <v>4</v>
+      </c>
+      <c r="C197">
+        <v>12</v>
+      </c>
+      <c r="D197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198">
+        <v>90</v>
+      </c>
+      <c r="B198">
+        <v>1</v>
+      </c>
+      <c r="C198">
+        <v>8</v>
+      </c>
+      <c r="D198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199">
+        <v>90</v>
+      </c>
+      <c r="B199">
+        <v>3</v>
+      </c>
+      <c r="C199">
+        <v>13</v>
+      </c>
+      <c r="D199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200">
+        <v>91</v>
+      </c>
+      <c r="B200">
+        <v>2</v>
+      </c>
+      <c r="C200">
+        <v>13</v>
+      </c>
+      <c r="D200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201">
+        <v>91</v>
+      </c>
+      <c r="B201">
+        <v>4</v>
+      </c>
+      <c r="C201">
+        <v>2</v>
+      </c>
+      <c r="D201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202">
+        <v>92</v>
+      </c>
+      <c r="B202">
+        <v>1</v>
+      </c>
+      <c r="C202">
+        <v>1</v>
+      </c>
+      <c r="D202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203">
+        <v>92</v>
+      </c>
+      <c r="B203">
+        <v>1</v>
+      </c>
+      <c r="C203">
+        <v>5</v>
+      </c>
+      <c r="D203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204">
+        <v>92</v>
+      </c>
+      <c r="B204">
+        <v>3</v>
+      </c>
+      <c r="C204">
+        <v>3</v>
+      </c>
+      <c r="D204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205">
+        <v>93</v>
+      </c>
+      <c r="B205">
+        <v>1</v>
+      </c>
+      <c r="C205">
+        <v>21</v>
+      </c>
+      <c r="D205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206">
+        <v>93</v>
+      </c>
+      <c r="B206">
+        <v>4</v>
+      </c>
+      <c r="C206">
+        <v>4</v>
+      </c>
+      <c r="D206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207">
+        <v>94</v>
+      </c>
+      <c r="B207">
+        <v>2</v>
+      </c>
+      <c r="C207">
+        <v>8</v>
+      </c>
+      <c r="D207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208">
+        <v>94</v>
+      </c>
+      <c r="B208">
+        <v>2</v>
+      </c>
+      <c r="C208">
+        <v>24</v>
+      </c>
+      <c r="D208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209">
+        <v>94</v>
+      </c>
+      <c r="B209">
+        <v>3</v>
+      </c>
+      <c r="C209">
+        <v>18</v>
+      </c>
+      <c r="D209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210">
+        <v>95</v>
+      </c>
+      <c r="B210">
+        <v>1</v>
+      </c>
+      <c r="C210">
+        <v>8</v>
+      </c>
+      <c r="D210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211">
+        <v>95</v>
+      </c>
+      <c r="B211">
+        <v>3</v>
+      </c>
+      <c r="C211">
+        <v>9</v>
+      </c>
+      <c r="D211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212">
+        <v>95</v>
+      </c>
+      <c r="B212">
+        <v>4</v>
+      </c>
+      <c r="C212">
+        <v>3</v>
+      </c>
+      <c r="D212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213">
+        <v>96</v>
+      </c>
+      <c r="B213">
+        <v>3</v>
+      </c>
+      <c r="C213">
+        <v>13</v>
+      </c>
+      <c r="D213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214">
+        <v>96</v>
+      </c>
+      <c r="B214">
+        <v>3</v>
+      </c>
+      <c r="C214">
+        <v>15</v>
+      </c>
+      <c r="D214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215">
+        <v>97</v>
+      </c>
+      <c r="B215">
+        <v>1</v>
+      </c>
+      <c r="C215">
+        <v>1</v>
+      </c>
+      <c r="D215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216">
+        <v>97</v>
+      </c>
+      <c r="B216">
+        <v>3</v>
+      </c>
+      <c r="C216">
+        <v>24</v>
+      </c>
+      <c r="D216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217">
+        <v>97</v>
+      </c>
+      <c r="B217">
+        <v>4</v>
+      </c>
+      <c r="C217">
+        <v>21</v>
+      </c>
+      <c r="D217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218">
+        <v>98</v>
+      </c>
+      <c r="B218">
+        <v>1</v>
+      </c>
+      <c r="C218">
+        <v>24</v>
+      </c>
+      <c r="D218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219">
+        <v>98</v>
+      </c>
+      <c r="B219">
+        <v>4</v>
+      </c>
+      <c r="C219">
+        <v>7</v>
+      </c>
+      <c r="D219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220">
+        <v>99</v>
+      </c>
+      <c r="B220">
+        <v>1</v>
+      </c>
+      <c r="C220">
+        <v>3</v>
+      </c>
+      <c r="D220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221">
+        <v>99</v>
+      </c>
+      <c r="B221">
+        <v>3</v>
+      </c>
+      <c r="C221">
+        <v>7</v>
+      </c>
+      <c r="D221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222">
+        <v>99</v>
+      </c>
+      <c r="B222">
+        <v>3</v>
+      </c>
+      <c r="C222">
+        <v>20</v>
+      </c>
+      <c r="D222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223">
+        <v>100</v>
+      </c>
+      <c r="B223">
+        <v>1</v>
+      </c>
+      <c r="C223">
+        <v>13</v>
+      </c>
+      <c r="D223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224">
+        <v>100</v>
+      </c>
+      <c r="B224">
+        <v>3</v>
+      </c>
+      <c r="C224">
+        <v>8</v>
+      </c>
+      <c r="D224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225">
+        <v>100</v>
+      </c>
+      <c r="B225">
+        <v>4</v>
+      </c>
+      <c r="C225">
+        <v>10</v>
+      </c>
+      <c r="D225">
         <v>1</v>
       </c>
     </row>

--- a/results/carga_lenta.xlsx
+++ b/results/carga_lenta.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D225"/>
+  <dimension ref="A1:D217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -411,7 +411,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -422,10 +422,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -433,13 +433,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -450,10 +450,10 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -461,13 +461,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -475,13 +475,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -489,13 +489,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -503,13 +503,13 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -517,13 +517,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -531,13 +531,13 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B11">
         <v>2</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -545,13 +545,13 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -559,13 +559,13 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -573,13 +573,13 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -587,13 +587,13 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -601,13 +601,13 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C16">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -615,13 +615,13 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C17">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -629,13 +629,13 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B18">
         <v>3</v>
       </c>
       <c r="C18">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -643,13 +643,13 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19">
         <v>9</v>
-      </c>
-      <c r="B19">
-        <v>3</v>
-      </c>
-      <c r="C19">
-        <v>24</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -657,13 +657,13 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C20">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -671,13 +671,13 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B21">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C21">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -685,13 +685,13 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C22">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -699,13 +699,13 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B23">
         <v>4</v>
       </c>
       <c r="C23">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -713,13 +713,13 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -727,13 +727,13 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
+        <v>6</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
         <v>13</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25">
-        <v>2</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -741,13 +741,13 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C26">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -755,13 +755,13 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
+        <v>7</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
         <v>14</v>
-      </c>
-      <c r="B27">
-        <v>3</v>
-      </c>
-      <c r="C27">
-        <v>24</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -769,13 +769,13 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C28">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -783,13 +783,13 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C29">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -797,13 +797,13 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B30">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C30">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -811,13 +811,13 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C31">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -825,13 +825,13 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B32">
         <v>3</v>
       </c>
       <c r="C32">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -839,13 +839,13 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B33">
         <v>4</v>
       </c>
       <c r="C33">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -853,13 +853,13 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B34">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C34">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -867,13 +867,13 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B35">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C35">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -881,13 +881,13 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B36">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C36">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -895,10 +895,10 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B37">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C37">
         <v>10</v>
@@ -909,13 +909,13 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C38">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -923,13 +923,13 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B39">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C39">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -937,13 +937,13 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C40">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -951,13 +951,13 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C41">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -965,13 +965,13 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C42">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -979,10 +979,10 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C43">
         <v>23</v>
@@ -993,13 +993,13 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C44">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -1007,13 +1007,13 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B45">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C45">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -1021,13 +1021,13 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B46">
         <v>1</v>
       </c>
       <c r="C46">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -1035,13 +1035,13 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C47">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -1049,13 +1049,13 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B48">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C48">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -1063,13 +1063,13 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B49">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C49">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -1077,13 +1077,13 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C50">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -1091,13 +1091,13 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C51">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D51">
         <v>1</v>
@@ -1105,13 +1105,13 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B52">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C52">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -1119,13 +1119,13 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C53">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D53">
         <v>1</v>
@@ -1133,13 +1133,13 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B54">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C54">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D54">
         <v>1</v>
@@ -1147,13 +1147,13 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B55">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C55">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D55">
         <v>1</v>
@@ -1161,13 +1161,13 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B56">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C56">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D56">
         <v>1</v>
@@ -1175,13 +1175,13 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B57">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C57">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D57">
         <v>1</v>
@@ -1189,13 +1189,13 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C58">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D58">
         <v>1</v>
@@ -1203,13 +1203,13 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B59">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C59">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D59">
         <v>1</v>
@@ -1217,13 +1217,13 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B60">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C60">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D60">
         <v>1</v>
@@ -1231,13 +1231,13 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="B61">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C61">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D61">
         <v>1</v>
@@ -1245,13 +1245,13 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B62">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C62">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D62">
         <v>1</v>
@@ -1259,13 +1259,13 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="B63">
         <v>3</v>
       </c>
       <c r="C63">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D63">
         <v>1</v>
@@ -1273,13 +1273,13 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="B64">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C64">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D64">
         <v>1</v>
@@ -1287,13 +1287,13 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="B65">
         <v>4</v>
       </c>
       <c r="C65">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D65">
         <v>1</v>
@@ -1301,13 +1301,13 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="B66">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C66">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D66">
         <v>1</v>
@@ -1315,13 +1315,13 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B67">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C67">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D67">
         <v>1</v>
@@ -1329,13 +1329,13 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B68">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C68">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D68">
         <v>1</v>
@@ -1343,13 +1343,13 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="B69">
         <v>4</v>
       </c>
       <c r="C69">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D69">
         <v>1</v>
@@ -1357,10 +1357,10 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="B70">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C70">
         <v>16</v>
@@ -1371,13 +1371,13 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="B71">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C71">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D71">
         <v>1</v>
@@ -1385,13 +1385,13 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="B72">
         <v>4</v>
       </c>
       <c r="C72">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D72">
         <v>1</v>
@@ -1399,13 +1399,13 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="B73">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C73">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73">
         <v>1</v>
@@ -1413,13 +1413,13 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="B74">
         <v>4</v>
       </c>
       <c r="C74">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D74">
         <v>1</v>
@@ -1427,13 +1427,13 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="B75">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C75">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D75">
         <v>1</v>
@@ -1441,13 +1441,13 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="B76">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C76">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D76">
         <v>1</v>
@@ -1455,10 +1455,10 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="B77">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C77">
         <v>22</v>
@@ -1469,13 +1469,13 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="B78">
         <v>4</v>
       </c>
       <c r="C78">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D78">
         <v>1</v>
@@ -1483,7 +1483,7 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="B79">
         <v>4</v>
@@ -1497,13 +1497,13 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="B80">
         <v>4</v>
       </c>
       <c r="C80">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D80">
         <v>1</v>
@@ -1511,13 +1511,13 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="B81">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C81">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D81">
         <v>1</v>
@@ -1525,13 +1525,13 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="B82">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D82">
         <v>1</v>
@@ -1539,10 +1539,10 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="B83">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C83">
         <v>3</v>
@@ -1553,13 +1553,13 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="B84">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C84">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D84">
         <v>1</v>
@@ -1567,13 +1567,13 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="B85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C85">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="D85">
         <v>1</v>
@@ -1581,13 +1581,13 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="B86">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C86">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D86">
         <v>1</v>
@@ -1595,13 +1595,13 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="B87">
         <v>3</v>
       </c>
       <c r="C87">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="D87">
         <v>1</v>
@@ -1609,13 +1609,13 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="B88">
         <v>4</v>
       </c>
       <c r="C88">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D88">
         <v>1</v>
@@ -1623,13 +1623,13 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B89">
         <v>1</v>
       </c>
       <c r="C89">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D89">
         <v>1</v>
@@ -1637,13 +1637,13 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C90">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D90">
         <v>1</v>
@@ -1651,13 +1651,13 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B91">
         <v>4</v>
       </c>
       <c r="C91">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D91">
         <v>1</v>
@@ -1665,13 +1665,13 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="B92">
         <v>2</v>
       </c>
       <c r="C92">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D92">
         <v>1</v>
@@ -1679,13 +1679,13 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="B93">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C93">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D93">
         <v>1</v>
@@ -1693,13 +1693,13 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="B94">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C94">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D94">
         <v>1</v>
@@ -1707,13 +1707,13 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="B95">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C95">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D95">
         <v>1</v>
@@ -1721,13 +1721,13 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="B96">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C96">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D96">
         <v>1</v>
@@ -1735,13 +1735,13 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="B97">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C97">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D97">
         <v>1</v>
@@ -1749,13 +1749,13 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="B98">
         <v>3</v>
       </c>
       <c r="C98">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D98">
         <v>1</v>
@@ -1763,13 +1763,13 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="B99">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C99">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D99">
         <v>1</v>
@@ -1777,13 +1777,13 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="B100">
         <v>4</v>
       </c>
       <c r="C100">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D100">
         <v>1</v>
@@ -1791,13 +1791,13 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="B101">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C101">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D101">
         <v>1</v>
@@ -1805,13 +1805,13 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="B102">
         <v>4</v>
       </c>
       <c r="C102">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D102">
         <v>1</v>
@@ -1819,13 +1819,13 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="B103">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C103">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D103">
         <v>1</v>
@@ -1833,13 +1833,13 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="B104">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C104">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D104">
         <v>1</v>
@@ -1847,13 +1847,13 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="B105">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C105">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D105">
         <v>1</v>
@@ -1861,13 +1861,13 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="B106">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C106">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D106">
         <v>1</v>
@@ -1875,13 +1875,13 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="B107">
         <v>1</v>
       </c>
       <c r="C107">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D107">
         <v>1</v>
@@ -1889,13 +1889,13 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="B108">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C108">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D108">
         <v>1</v>
@@ -1903,13 +1903,13 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="B109">
         <v>2</v>
       </c>
       <c r="C109">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D109">
         <v>1</v>
@@ -1917,13 +1917,13 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="B110">
         <v>3</v>
       </c>
       <c r="C110">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D110">
         <v>1</v>
@@ -1931,13 +1931,13 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="B111">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C111">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D111">
         <v>1</v>
@@ -1945,13 +1945,13 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="B112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C112">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D112">
         <v>1</v>
@@ -1959,13 +1959,13 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="B113">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C113">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D113">
         <v>1</v>
@@ -1973,13 +1973,13 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="B114">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C114">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D114">
         <v>1</v>
@@ -1987,13 +1987,13 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="B115">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C115">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D115">
         <v>1</v>
@@ -2001,13 +2001,13 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="B116">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C116">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D116">
         <v>1</v>
@@ -2015,13 +2015,13 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="B117">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C117">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D117">
         <v>1</v>
@@ -2029,13 +2029,13 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="B118">
         <v>3</v>
       </c>
       <c r="C118">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D118">
         <v>1</v>
@@ -2043,13 +2043,13 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="B119">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C119">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D119">
         <v>1</v>
@@ -2057,13 +2057,13 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="B120">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C120">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D120">
         <v>1</v>
@@ -2071,13 +2071,13 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="B121">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C121">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D121">
         <v>1</v>
@@ -2085,13 +2085,13 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="B122">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C122">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D122">
         <v>1</v>
@@ -2099,13 +2099,13 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="B123">
         <v>4</v>
       </c>
       <c r="C123">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D123">
         <v>1</v>
@@ -2113,13 +2113,13 @@
     </row>
     <row r="124" spans="1:4">
       <c r="A124">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="B124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C124">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D124">
         <v>1</v>
@@ -2127,13 +2127,13 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="B125">
         <v>3</v>
       </c>
       <c r="C125">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D125">
         <v>1</v>
@@ -2141,13 +2141,13 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="B126">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C126">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D126">
         <v>1</v>
@@ -2155,13 +2155,13 @@
     </row>
     <row r="127" spans="1:4">
       <c r="A127">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="B127">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C127">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D127">
         <v>1</v>
@@ -2169,7 +2169,7 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="B128">
         <v>2</v>
@@ -2183,7 +2183,7 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="B129">
         <v>2</v>
@@ -2197,13 +2197,13 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="B130">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C130">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D130">
         <v>1</v>
@@ -2211,13 +2211,13 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="B131">
         <v>4</v>
       </c>
       <c r="C131">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D131">
         <v>1</v>
@@ -2225,13 +2225,13 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="B132">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C132">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D132">
         <v>1</v>
@@ -2239,13 +2239,13 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="B133">
         <v>1</v>
       </c>
       <c r="C133">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D133">
         <v>1</v>
@@ -2253,13 +2253,13 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="B134">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C134">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D134">
         <v>1</v>
@@ -2267,13 +2267,13 @@
     </row>
     <row r="135" spans="1:4">
       <c r="A135">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="B135">
         <v>4</v>
       </c>
       <c r="C135">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D135">
         <v>1</v>
@@ -2281,13 +2281,13 @@
     </row>
     <row r="136" spans="1:4">
       <c r="A136">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="B136">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C136">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D136">
         <v>1</v>
@@ -2295,13 +2295,13 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="B137">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C137">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D137">
         <v>1</v>
@@ -2309,13 +2309,13 @@
     </row>
     <row r="138" spans="1:4">
       <c r="A138">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="B138">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C138">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D138">
         <v>1</v>
@@ -2323,13 +2323,13 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="B139">
         <v>2</v>
       </c>
       <c r="C139">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D139">
         <v>1</v>
@@ -2337,13 +2337,13 @@
     </row>
     <row r="140" spans="1:4">
       <c r="A140">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="B140">
         <v>4</v>
       </c>
       <c r="C140">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D140">
         <v>1</v>
@@ -2351,13 +2351,13 @@
     </row>
     <row r="141" spans="1:4">
       <c r="A141">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="B141">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C141">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="D141">
         <v>1</v>
@@ -2365,13 +2365,13 @@
     </row>
     <row r="142" spans="1:4">
       <c r="A142">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="B142">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C142">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D142">
         <v>1</v>
@@ -2379,13 +2379,13 @@
     </row>
     <row r="143" spans="1:4">
       <c r="A143">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="B143">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C143">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D143">
         <v>1</v>
@@ -2393,13 +2393,13 @@
     </row>
     <row r="144" spans="1:4">
       <c r="A144">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="B144">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C144">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D144">
         <v>1</v>
@@ -2407,13 +2407,13 @@
     </row>
     <row r="145" spans="1:4">
       <c r="A145">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="B145">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C145">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D145">
         <v>1</v>
@@ -2421,13 +2421,13 @@
     </row>
     <row r="146" spans="1:4">
       <c r="A146">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="B146">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C146">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D146">
         <v>1</v>
@@ -2435,13 +2435,13 @@
     </row>
     <row r="147" spans="1:4">
       <c r="A147">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="B147">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C147">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D147">
         <v>1</v>
@@ -2449,13 +2449,13 @@
     </row>
     <row r="148" spans="1:4">
       <c r="A148">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="B148">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C148">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D148">
         <v>1</v>
@@ -2463,13 +2463,13 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="B149">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C149">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D149">
         <v>1</v>
@@ -2477,13 +2477,13 @@
     </row>
     <row r="150" spans="1:4">
       <c r="A150">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="B150">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C150">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D150">
         <v>1</v>
@@ -2491,13 +2491,13 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="B151">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C151">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D151">
         <v>1</v>
@@ -2505,13 +2505,13 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="B152">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C152">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D152">
         <v>1</v>
@@ -2519,13 +2519,13 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="B153">
         <v>4</v>
       </c>
       <c r="C153">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="D153">
         <v>1</v>
@@ -2533,13 +2533,13 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="B154">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C154">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D154">
         <v>1</v>
@@ -2547,13 +2547,13 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="B155">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C155">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D155">
         <v>1</v>
@@ -2561,13 +2561,13 @@
     </row>
     <row r="156" spans="1:4">
       <c r="A156">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="B156">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C156">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D156">
         <v>1</v>
@@ -2575,13 +2575,13 @@
     </row>
     <row r="157" spans="1:4">
       <c r="A157">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="B157">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C157">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D157">
         <v>1</v>
@@ -2589,13 +2589,13 @@
     </row>
     <row r="158" spans="1:4">
       <c r="A158">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="B158">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C158">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D158">
         <v>1</v>
@@ -2603,13 +2603,13 @@
     </row>
     <row r="159" spans="1:4">
       <c r="A159">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="B159">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C159">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D159">
         <v>1</v>
@@ -2617,13 +2617,13 @@
     </row>
     <row r="160" spans="1:4">
       <c r="A160">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="B160">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C160">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D160">
         <v>1</v>
@@ -2631,13 +2631,13 @@
     </row>
     <row r="161" spans="1:4">
       <c r="A161">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="B161">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C161">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D161">
         <v>1</v>
@@ -2645,13 +2645,13 @@
     </row>
     <row r="162" spans="1:4">
       <c r="A162">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="B162">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C162">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D162">
         <v>1</v>
@@ -2659,13 +2659,13 @@
     </row>
     <row r="163" spans="1:4">
       <c r="A163">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="B163">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C163">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D163">
         <v>1</v>
@@ -2673,13 +2673,13 @@
     </row>
     <row r="164" spans="1:4">
       <c r="A164">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="B164">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C164">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D164">
         <v>1</v>
@@ -2687,13 +2687,13 @@
     </row>
     <row r="165" spans="1:4">
       <c r="A165">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="B165">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C165">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D165">
         <v>1</v>
@@ -2701,13 +2701,13 @@
     </row>
     <row r="166" spans="1:4">
       <c r="A166">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="B166">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C166">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D166">
         <v>1</v>
@@ -2715,13 +2715,13 @@
     </row>
     <row r="167" spans="1:4">
       <c r="A167">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="B167">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C167">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D167">
         <v>1</v>
@@ -2729,13 +2729,13 @@
     </row>
     <row r="168" spans="1:4">
       <c r="A168">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="B168">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C168">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D168">
         <v>1</v>
@@ -2743,13 +2743,13 @@
     </row>
     <row r="169" spans="1:4">
       <c r="A169">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B169">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C169">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="D169">
         <v>1</v>
@@ -2757,10 +2757,10 @@
     </row>
     <row r="170" spans="1:4">
       <c r="A170">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B170">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C170">
         <v>19</v>
@@ -2771,13 +2771,13 @@
     </row>
     <row r="171" spans="1:4">
       <c r="A171">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="B171">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C171">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D171">
         <v>1</v>
@@ -2785,13 +2785,13 @@
     </row>
     <row r="172" spans="1:4">
       <c r="A172">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="B172">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C172">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D172">
         <v>1</v>
@@ -2799,13 +2799,13 @@
     </row>
     <row r="173" spans="1:4">
       <c r="A173">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="B173">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C173">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D173">
         <v>1</v>
@@ -2813,13 +2813,13 @@
     </row>
     <row r="174" spans="1:4">
       <c r="A174">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="B174">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C174">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D174">
         <v>1</v>
@@ -2827,13 +2827,13 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="B175">
         <v>4</v>
       </c>
       <c r="C175">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D175">
         <v>1</v>
@@ -2841,13 +2841,13 @@
     </row>
     <row r="176" spans="1:4">
       <c r="A176">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="B176">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C176">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D176">
         <v>1</v>
@@ -2855,13 +2855,13 @@
     </row>
     <row r="177" spans="1:4">
       <c r="A177">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="B177">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C177">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D177">
         <v>1</v>
@@ -2869,13 +2869,13 @@
     </row>
     <row r="178" spans="1:4">
       <c r="A178">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="B178">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C178">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D178">
         <v>1</v>
@@ -2883,13 +2883,13 @@
     </row>
     <row r="179" spans="1:4">
       <c r="A179">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="B179">
         <v>3</v>
       </c>
       <c r="C179">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D179">
         <v>1</v>
@@ -2897,13 +2897,13 @@
     </row>
     <row r="180" spans="1:4">
       <c r="A180">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="B180">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C180">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D180">
         <v>1</v>
@@ -2911,13 +2911,13 @@
     </row>
     <row r="181" spans="1:4">
       <c r="A181">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="B181">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C181">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D181">
         <v>1</v>
@@ -2925,13 +2925,13 @@
     </row>
     <row r="182" spans="1:4">
       <c r="A182">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="B182">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C182">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D182">
         <v>1</v>
@@ -2939,13 +2939,13 @@
     </row>
     <row r="183" spans="1:4">
       <c r="A183">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="B183">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C183">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D183">
         <v>1</v>
@@ -2953,13 +2953,13 @@
     </row>
     <row r="184" spans="1:4">
       <c r="A184">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="B184">
         <v>4</v>
       </c>
       <c r="C184">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D184">
         <v>1</v>
@@ -2967,13 +2967,13 @@
     </row>
     <row r="185" spans="1:4">
       <c r="A185">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="B185">
         <v>4</v>
       </c>
       <c r="C185">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D185">
         <v>1</v>
@@ -2981,13 +2981,13 @@
     </row>
     <row r="186" spans="1:4">
       <c r="A186">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="B186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C186">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D186">
         <v>1</v>
@@ -2995,13 +2995,13 @@
     </row>
     <row r="187" spans="1:4">
       <c r="A187">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="B187">
         <v>3</v>
       </c>
       <c r="C187">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D187">
         <v>1</v>
@@ -3009,13 +3009,13 @@
     </row>
     <row r="188" spans="1:4">
       <c r="A188">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="B188">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C188">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D188">
         <v>1</v>
@@ -3023,13 +3023,13 @@
     </row>
     <row r="189" spans="1:4">
       <c r="A189">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="B189">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C189">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D189">
         <v>1</v>
@@ -3037,13 +3037,13 @@
     </row>
     <row r="190" spans="1:4">
       <c r="A190">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="B190">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C190">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D190">
         <v>1</v>
@@ -3051,13 +3051,13 @@
     </row>
     <row r="191" spans="1:4">
       <c r="A191">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="B191">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C191">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D191">
         <v>1</v>
@@ -3065,13 +3065,13 @@
     </row>
     <row r="192" spans="1:4">
       <c r="A192">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="B192">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C192">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D192">
         <v>1</v>
@@ -3079,13 +3079,13 @@
     </row>
     <row r="193" spans="1:4">
       <c r="A193">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="B193">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C193">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D193">
         <v>1</v>
@@ -3093,13 +3093,13 @@
     </row>
     <row r="194" spans="1:4">
       <c r="A194">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="B194">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C194">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D194">
         <v>1</v>
@@ -3107,13 +3107,13 @@
     </row>
     <row r="195" spans="1:4">
       <c r="A195">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="B195">
         <v>4</v>
       </c>
       <c r="C195">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D195">
         <v>1</v>
@@ -3121,13 +3121,13 @@
     </row>
     <row r="196" spans="1:4">
       <c r="A196">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="B196">
         <v>4</v>
       </c>
       <c r="C196">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D196">
         <v>1</v>
@@ -3135,13 +3135,13 @@
     </row>
     <row r="197" spans="1:4">
       <c r="A197">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="B197">
         <v>4</v>
       </c>
       <c r="C197">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D197">
         <v>1</v>
@@ -3149,13 +3149,13 @@
     </row>
     <row r="198" spans="1:4">
       <c r="A198">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="B198">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C198">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D198">
         <v>1</v>
@@ -3163,13 +3163,13 @@
     </row>
     <row r="199" spans="1:4">
       <c r="A199">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="B199">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C199">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D199">
         <v>1</v>
@@ -3177,13 +3177,13 @@
     </row>
     <row r="200" spans="1:4">
       <c r="A200">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="B200">
         <v>2</v>
       </c>
       <c r="C200">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D200">
         <v>1</v>
@@ -3191,13 +3191,13 @@
     </row>
     <row r="201" spans="1:4">
       <c r="A201">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="B201">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C201">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D201">
         <v>1</v>
@@ -3205,13 +3205,13 @@
     </row>
     <row r="202" spans="1:4">
       <c r="A202">
-        <v>92</v>
+        <v>54</v>
       </c>
       <c r="B202">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C202">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D202">
         <v>1</v>
@@ -3219,13 +3219,13 @@
     </row>
     <row r="203" spans="1:4">
       <c r="A203">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="B203">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C203">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D203">
         <v>1</v>
@@ -3233,13 +3233,13 @@
     </row>
     <row r="204" spans="1:4">
       <c r="A204">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="B204">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C204">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="D204">
         <v>1</v>
@@ -3247,13 +3247,13 @@
     </row>
     <row r="205" spans="1:4">
       <c r="A205">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="B205">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C205">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D205">
         <v>1</v>
@@ -3261,13 +3261,13 @@
     </row>
     <row r="206" spans="1:4">
       <c r="A206">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="B206">
         <v>4</v>
       </c>
       <c r="C206">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D206">
         <v>1</v>
@@ -3275,13 +3275,13 @@
     </row>
     <row r="207" spans="1:4">
       <c r="A207">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="B207">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C207">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D207">
         <v>1</v>
@@ -3289,13 +3289,13 @@
     </row>
     <row r="208" spans="1:4">
       <c r="A208">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="B208">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C208">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D208">
         <v>1</v>
@@ -3303,13 +3303,13 @@
     </row>
     <row r="209" spans="1:4">
       <c r="A209">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="B209">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C209">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D209">
         <v>1</v>
@@ -3317,13 +3317,13 @@
     </row>
     <row r="210" spans="1:4">
       <c r="A210">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="B210">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C210">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D210">
         <v>1</v>
@@ -3331,13 +3331,13 @@
     </row>
     <row r="211" spans="1:4">
       <c r="A211">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="B211">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C211">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D211">
         <v>1</v>
@@ -3345,13 +3345,13 @@
     </row>
     <row r="212" spans="1:4">
       <c r="A212">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="B212">
         <v>4</v>
       </c>
       <c r="C212">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D212">
         <v>1</v>
@@ -3359,13 +3359,13 @@
     </row>
     <row r="213" spans="1:4">
       <c r="A213">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="B213">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C213">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D213">
         <v>1</v>
@@ -3373,13 +3373,13 @@
     </row>
     <row r="214" spans="1:4">
       <c r="A214">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="B214">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C214">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D214">
         <v>1</v>
@@ -3387,13 +3387,13 @@
     </row>
     <row r="215" spans="1:4">
       <c r="A215">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="B215">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C215">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D215">
         <v>1</v>
@@ -3401,13 +3401,13 @@
     </row>
     <row r="216" spans="1:4">
       <c r="A216">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="B216">
         <v>3</v>
       </c>
       <c r="C216">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D216">
         <v>1</v>
@@ -3415,7 +3415,7 @@
     </row>
     <row r="217" spans="1:4">
       <c r="A217">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="B217">
         <v>4</v>
@@ -3424,118 +3424,6 @@
         <v>21</v>
       </c>
       <c r="D217">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4">
-      <c r="A218">
-        <v>98</v>
-      </c>
-      <c r="B218">
-        <v>1</v>
-      </c>
-      <c r="C218">
-        <v>24</v>
-      </c>
-      <c r="D218">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4">
-      <c r="A219">
-        <v>98</v>
-      </c>
-      <c r="B219">
-        <v>4</v>
-      </c>
-      <c r="C219">
-        <v>7</v>
-      </c>
-      <c r="D219">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4">
-      <c r="A220">
-        <v>99</v>
-      </c>
-      <c r="B220">
-        <v>1</v>
-      </c>
-      <c r="C220">
-        <v>3</v>
-      </c>
-      <c r="D220">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4">
-      <c r="A221">
-        <v>99</v>
-      </c>
-      <c r="B221">
-        <v>3</v>
-      </c>
-      <c r="C221">
-        <v>7</v>
-      </c>
-      <c r="D221">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4">
-      <c r="A222">
-        <v>99</v>
-      </c>
-      <c r="B222">
-        <v>3</v>
-      </c>
-      <c r="C222">
-        <v>20</v>
-      </c>
-      <c r="D222">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4">
-      <c r="A223">
-        <v>100</v>
-      </c>
-      <c r="B223">
-        <v>1</v>
-      </c>
-      <c r="C223">
-        <v>13</v>
-      </c>
-      <c r="D223">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4">
-      <c r="A224">
-        <v>100</v>
-      </c>
-      <c r="B224">
-        <v>3</v>
-      </c>
-      <c r="C224">
-        <v>8</v>
-      </c>
-      <c r="D224">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4">
-      <c r="A225">
-        <v>100</v>
-      </c>
-      <c r="B225">
-        <v>4</v>
-      </c>
-      <c r="C225">
-        <v>10</v>
-      </c>
-      <c r="D225">
         <v>1</v>
       </c>
     </row>

--- a/results/carga_lenta.xlsx
+++ b/results/carga_lenta.xlsx
@@ -405,13 +405,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -419,13 +419,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -433,13 +433,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -447,13 +447,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -461,13 +461,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -475,13 +475,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -489,13 +489,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -503,13 +503,13 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -517,13 +517,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -531,13 +531,13 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C11">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -545,13 +545,13 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -559,13 +559,13 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -573,13 +573,13 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C14">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -587,13 +587,13 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C15">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -601,13 +601,13 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C16">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -615,13 +615,13 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C17">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -629,13 +629,13 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C18">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -643,13 +643,13 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C19">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -657,13 +657,13 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C20">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -671,13 +671,13 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C21">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -685,13 +685,13 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B22">
         <v>2</v>
       </c>
       <c r="C22">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -699,13 +699,13 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C23">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -713,13 +713,13 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -727,13 +727,13 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C25">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -741,13 +741,13 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B26">
         <v>3</v>
       </c>
       <c r="C26">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -755,13 +755,13 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C27">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -769,13 +769,13 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C28">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -783,13 +783,13 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C29">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -797,13 +797,13 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B30">
         <v>2</v>
       </c>
       <c r="C30">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -811,13 +811,13 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B31">
         <v>2</v>
       </c>
       <c r="C31">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -825,13 +825,13 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B32">
         <v>3</v>
       </c>
       <c r="C32">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -839,7 +839,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B33">
         <v>4</v>
@@ -853,13 +853,13 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
       <c r="C34">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -867,13 +867,13 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C35">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -881,13 +881,13 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B36">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C36">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -895,13 +895,13 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
+        <v>17</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37">
         <v>9</v>
-      </c>
-      <c r="B37">
-        <v>1</v>
-      </c>
-      <c r="C37">
-        <v>10</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -909,13 +909,13 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B38">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C38">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -923,13 +923,13 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C39">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -937,13 +937,13 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C40">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -951,13 +951,13 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C41">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -965,13 +965,13 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B42">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C42">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -979,13 +979,13 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C43">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -993,13 +993,13 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
+        <v>20</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44">
         <v>10</v>
-      </c>
-      <c r="B44">
-        <v>3</v>
-      </c>
-      <c r="C44">
-        <v>1</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -1007,13 +1007,13 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B45">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C45">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -1021,13 +1021,13 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C46">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C47">
         <v>21</v>
@@ -1049,13 +1049,13 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B48">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C48">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -1063,13 +1063,13 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B49">
         <v>3</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -1077,13 +1077,13 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B50">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C50">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -1091,13 +1091,13 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C51">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D51">
         <v>1</v>
@@ -1105,13 +1105,13 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B52">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C52">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -1119,13 +1119,13 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B53">
         <v>2</v>
       </c>
       <c r="C53">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D53">
         <v>1</v>
@@ -1133,13 +1133,13 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B54">
         <v>2</v>
       </c>
       <c r="C54">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D54">
         <v>1</v>
@@ -1147,13 +1147,13 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B55">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C55">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D55">
         <v>1</v>
@@ -1161,13 +1161,13 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B56">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C56">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D56">
         <v>1</v>
@@ -1175,13 +1175,13 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B57">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C57">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D57">
         <v>1</v>
@@ -1189,13 +1189,13 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C58">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D58">
         <v>1</v>
@@ -1203,13 +1203,13 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B59">
         <v>2</v>
       </c>
       <c r="C59">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D59">
         <v>1</v>
@@ -1217,13 +1217,13 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B60">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C60">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D60">
         <v>1</v>
@@ -1231,13 +1231,13 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B61">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C61">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D61">
         <v>1</v>
@@ -1245,13 +1245,13 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C62">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D62">
         <v>1</v>
@@ -1259,13 +1259,13 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B63">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C63">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D63">
         <v>1</v>
@@ -1273,13 +1273,13 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B64">
         <v>4</v>
       </c>
       <c r="C64">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D64">
         <v>1</v>
@@ -1287,13 +1287,13 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65">
+        <v>27</v>
+      </c>
+      <c r="B65">
+        <v>4</v>
+      </c>
+      <c r="C65">
         <v>14</v>
-      </c>
-      <c r="B65">
-        <v>4</v>
-      </c>
-      <c r="C65">
-        <v>16</v>
       </c>
       <c r="D65">
         <v>1</v>
@@ -1301,13 +1301,13 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B66">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C66">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="D66">
         <v>1</v>
@@ -1315,13 +1315,13 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B67">
         <v>2</v>
       </c>
       <c r="C67">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D67">
         <v>1</v>
@@ -1329,13 +1329,13 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B68">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C68">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D68">
         <v>1</v>
@@ -1343,13 +1343,13 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B69">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C69">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D69">
         <v>1</v>
@@ -1357,13 +1357,13 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B70">
         <v>3</v>
       </c>
       <c r="C70">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D70">
         <v>1</v>
@@ -1371,13 +1371,13 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B71">
         <v>4</v>
       </c>
       <c r="C71">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D71">
         <v>1</v>
@@ -1385,13 +1385,13 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B72">
         <v>4</v>
       </c>
       <c r="C72">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D72">
         <v>1</v>
@@ -1399,13 +1399,13 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B73">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C73">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D73">
         <v>1</v>
@@ -1413,13 +1413,13 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B74">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C74">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D74">
         <v>1</v>
@@ -1427,13 +1427,13 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B75">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C75">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D75">
         <v>1</v>
@@ -1441,13 +1441,13 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B76">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C76">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D76">
         <v>1</v>
@@ -1455,13 +1455,13 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B77">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C77">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D77">
         <v>1</v>
@@ -1469,13 +1469,13 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B78">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C78">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D78">
         <v>1</v>
@@ -1483,13 +1483,13 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B79">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C79">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D79">
         <v>1</v>
@@ -1497,13 +1497,13 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B80">
         <v>4</v>
       </c>
       <c r="C80">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D80">
         <v>1</v>
@@ -1511,13 +1511,13 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B81">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C81">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D81">
         <v>1</v>
@@ -1525,13 +1525,13 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C82">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="D82">
         <v>1</v>
@@ -1539,13 +1539,13 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B83">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C83">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D83">
         <v>1</v>
@@ -1553,13 +1553,13 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B84">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C84">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D84">
         <v>1</v>
@@ -1567,13 +1567,13 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B85">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C85">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D85">
         <v>1</v>
@@ -1581,13 +1581,13 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B86">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C86">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D86">
         <v>1</v>
@@ -1595,13 +1595,13 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B87">
         <v>3</v>
       </c>
       <c r="C87">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D87">
         <v>1</v>
@@ -1609,13 +1609,13 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B88">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C88">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D88">
         <v>1</v>
@@ -1623,13 +1623,13 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B89">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C89">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D89">
         <v>1</v>
@@ -1637,13 +1637,13 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B90">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C90">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D90">
         <v>1</v>
@@ -1651,13 +1651,13 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B91">
         <v>4</v>
       </c>
       <c r="C91">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D91">
         <v>1</v>
@@ -1665,13 +1665,13 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="B92">
         <v>2</v>
       </c>
       <c r="C92">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D92">
         <v>1</v>
@@ -1679,13 +1679,13 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="B93">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C93">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D93">
         <v>1</v>
@@ -1693,13 +1693,13 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="B94">
         <v>3</v>
       </c>
       <c r="C94">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D94">
         <v>1</v>
@@ -1707,13 +1707,13 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95">
+        <v>38</v>
+      </c>
+      <c r="B95">
+        <v>3</v>
+      </c>
+      <c r="C95">
         <v>21</v>
-      </c>
-      <c r="B95">
-        <v>4</v>
-      </c>
-      <c r="C95">
-        <v>18</v>
       </c>
       <c r="D95">
         <v>1</v>
@@ -1721,13 +1721,13 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="B96">
         <v>4</v>
       </c>
       <c r="C96">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="D96">
         <v>1</v>
@@ -1735,13 +1735,13 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="B97">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C97">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D97">
         <v>1</v>
@@ -1749,13 +1749,13 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="B98">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C98">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D98">
         <v>1</v>
@@ -1763,13 +1763,13 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="B99">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C99">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D99">
         <v>1</v>
@@ -1777,13 +1777,13 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="B100">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C100">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D100">
         <v>1</v>
@@ -1791,13 +1791,13 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B101">
         <v>1</v>
       </c>
       <c r="C101">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D101">
         <v>1</v>
@@ -1805,13 +1805,13 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B102">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C102">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D102">
         <v>1</v>
@@ -1819,13 +1819,13 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B103">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C103">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D103">
         <v>1</v>
@@ -1833,13 +1833,13 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B104">
         <v>4</v>
       </c>
       <c r="C104">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D104">
         <v>1</v>
@@ -1847,13 +1847,13 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="B105">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C105">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="D105">
         <v>1</v>
@@ -1861,13 +1861,13 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="B106">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C106">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D106">
         <v>1</v>
@@ -1875,13 +1875,13 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="B107">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C107">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D107">
         <v>1</v>
@@ -1889,13 +1889,13 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="B108">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C108">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D108">
         <v>1</v>
@@ -1903,13 +1903,13 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="B109">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C109">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D109">
         <v>1</v>
@@ -1917,13 +1917,13 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="B110">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C110">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D110">
         <v>1</v>
@@ -1931,13 +1931,13 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="B111">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C111">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D111">
         <v>1</v>
@@ -1945,13 +1945,13 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="B112">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C112">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D112">
         <v>1</v>
@@ -1959,13 +1959,13 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="B113">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C113">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D113">
         <v>1</v>
@@ -1973,13 +1973,13 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="B114">
         <v>4</v>
       </c>
       <c r="C114">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D114">
         <v>1</v>
@@ -1987,13 +1987,13 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="B115">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C115">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D115">
         <v>1</v>
@@ -2001,13 +2001,13 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="B116">
         <v>2</v>
       </c>
       <c r="C116">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D116">
         <v>1</v>
@@ -2015,13 +2015,13 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="B117">
         <v>2</v>
       </c>
       <c r="C117">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D117">
         <v>1</v>
@@ -2029,13 +2029,13 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="B118">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C118">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D118">
         <v>1</v>
@@ -2043,7 +2043,7 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="B119">
         <v>4</v>
@@ -2057,13 +2057,13 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="B120">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C120">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D120">
         <v>1</v>
@@ -2071,13 +2071,13 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="B121">
         <v>3</v>
       </c>
       <c r="C121">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D121">
         <v>1</v>
@@ -2085,13 +2085,13 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="B122">
         <v>3</v>
       </c>
       <c r="C122">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D122">
         <v>1</v>
@@ -2099,10 +2099,10 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="B123">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C123">
         <v>23</v>
@@ -2113,13 +2113,13 @@
     </row>
     <row r="124" spans="1:4">
       <c r="A124">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B124">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C124">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D124">
         <v>1</v>
@@ -2127,13 +2127,13 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B125">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C125">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D125">
         <v>1</v>
@@ -2141,13 +2141,13 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="B126">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C126">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="D126">
         <v>1</v>
@@ -2155,13 +2155,13 @@
     </row>
     <row r="127" spans="1:4">
       <c r="A127">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="B127">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C127">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D127">
         <v>1</v>
@@ -2169,13 +2169,13 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="B128">
         <v>2</v>
       </c>
       <c r="C128">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D128">
         <v>1</v>
@@ -2183,13 +2183,13 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="B129">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C129">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D129">
         <v>1</v>
@@ -2197,13 +2197,13 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="B130">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C130">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="D130">
         <v>1</v>
@@ -2211,13 +2211,13 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="B131">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C131">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D131">
         <v>1</v>
@@ -2225,13 +2225,13 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="B132">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C132">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D132">
         <v>1</v>
@@ -2239,13 +2239,13 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="B133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C133">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D133">
         <v>1</v>
@@ -2253,13 +2253,13 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="B134">
         <v>2</v>
       </c>
       <c r="C134">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D134">
         <v>1</v>
@@ -2267,13 +2267,13 @@
     </row>
     <row r="135" spans="1:4">
       <c r="A135">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="B135">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C135">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D135">
         <v>1</v>
@@ -2281,13 +2281,13 @@
     </row>
     <row r="136" spans="1:4">
       <c r="A136">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="B136">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C136">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="D136">
         <v>1</v>
@@ -2295,13 +2295,13 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="B137">
         <v>4</v>
       </c>
       <c r="C137">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D137">
         <v>1</v>
@@ -2309,13 +2309,13 @@
     </row>
     <row r="138" spans="1:4">
       <c r="A138">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="B138">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C138">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="D138">
         <v>1</v>
@@ -2323,13 +2323,13 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="B139">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C139">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D139">
         <v>1</v>
@@ -2337,10 +2337,10 @@
     </row>
     <row r="140" spans="1:4">
       <c r="A140">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="B140">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C140">
         <v>19</v>
@@ -2351,13 +2351,13 @@
     </row>
     <row r="141" spans="1:4">
       <c r="A141">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="B141">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C141">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D141">
         <v>1</v>
@@ -2365,13 +2365,13 @@
     </row>
     <row r="142" spans="1:4">
       <c r="A142">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="B142">
         <v>4</v>
       </c>
       <c r="C142">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D142">
         <v>1</v>
@@ -2379,13 +2379,13 @@
     </row>
     <row r="143" spans="1:4">
       <c r="A143">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="B143">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C143">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D143">
         <v>1</v>
@@ -2393,13 +2393,13 @@
     </row>
     <row r="144" spans="1:4">
       <c r="A144">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="B144">
         <v>2</v>
       </c>
       <c r="C144">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D144">
         <v>1</v>
@@ -2407,13 +2407,13 @@
     </row>
     <row r="145" spans="1:4">
       <c r="A145">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="B145">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C145">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D145">
         <v>1</v>
@@ -2421,13 +2421,13 @@
     </row>
     <row r="146" spans="1:4">
       <c r="A146">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="B146">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C146">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D146">
         <v>1</v>
@@ -2435,13 +2435,13 @@
     </row>
     <row r="147" spans="1:4">
       <c r="A147">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="B147">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C147">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D147">
         <v>1</v>
@@ -2449,13 +2449,13 @@
     </row>
     <row r="148" spans="1:4">
       <c r="A148">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="B148">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C148">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D148">
         <v>1</v>
@@ -2463,13 +2463,13 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="B149">
         <v>4</v>
       </c>
       <c r="C149">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D149">
         <v>1</v>
@@ -2477,13 +2477,13 @@
     </row>
     <row r="150" spans="1:4">
       <c r="A150">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="B150">
         <v>2</v>
       </c>
       <c r="C150">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D150">
         <v>1</v>
@@ -2491,13 +2491,13 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="B151">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C151">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D151">
         <v>1</v>
@@ -2505,13 +2505,13 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="B152">
         <v>3</v>
       </c>
       <c r="C152">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="D152">
         <v>1</v>
@@ -2519,13 +2519,13 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="B153">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C153">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D153">
         <v>1</v>
@@ -2533,13 +2533,13 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="B154">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C154">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D154">
         <v>1</v>
@@ -2547,13 +2547,13 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="B155">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C155">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D155">
         <v>1</v>
@@ -2561,13 +2561,13 @@
     </row>
     <row r="156" spans="1:4">
       <c r="A156">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="B156">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C156">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D156">
         <v>1</v>
@@ -2575,13 +2575,13 @@
     </row>
     <row r="157" spans="1:4">
       <c r="A157">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="B157">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C157">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D157">
         <v>1</v>
@@ -2589,13 +2589,13 @@
     </row>
     <row r="158" spans="1:4">
       <c r="A158">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="B158">
         <v>3</v>
       </c>
       <c r="C158">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D158">
         <v>1</v>
@@ -2603,13 +2603,13 @@
     </row>
     <row r="159" spans="1:4">
       <c r="A159">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="B159">
         <v>4</v>
       </c>
       <c r="C159">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D159">
         <v>1</v>
@@ -2617,13 +2617,13 @@
     </row>
     <row r="160" spans="1:4">
       <c r="A160">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="B160">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C160">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D160">
         <v>1</v>
@@ -2631,13 +2631,13 @@
     </row>
     <row r="161" spans="1:4">
       <c r="A161">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="B161">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C161">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D161">
         <v>1</v>
@@ -2645,13 +2645,13 @@
     </row>
     <row r="162" spans="1:4">
       <c r="A162">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="B162">
         <v>2</v>
       </c>
       <c r="C162">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D162">
         <v>1</v>
@@ -2659,13 +2659,13 @@
     </row>
     <row r="163" spans="1:4">
       <c r="A163">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="B163">
         <v>2</v>
       </c>
       <c r="C163">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D163">
         <v>1</v>
@@ -2673,13 +2673,13 @@
     </row>
     <row r="164" spans="1:4">
       <c r="A164">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="B164">
         <v>2</v>
       </c>
       <c r="C164">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D164">
         <v>1</v>
@@ -2687,13 +2687,13 @@
     </row>
     <row r="165" spans="1:4">
       <c r="A165">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="B165">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C165">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D165">
         <v>1</v>
@@ -2701,13 +2701,13 @@
     </row>
     <row r="166" spans="1:4">
       <c r="A166">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="B166">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C166">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D166">
         <v>1</v>
@@ -2715,13 +2715,13 @@
     </row>
     <row r="167" spans="1:4">
       <c r="A167">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="B167">
         <v>4</v>
       </c>
       <c r="C167">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D167">
         <v>1</v>
@@ -2729,13 +2729,13 @@
     </row>
     <row r="168" spans="1:4">
       <c r="A168">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="B168">
         <v>2</v>
       </c>
       <c r="C168">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D168">
         <v>1</v>
@@ -2743,13 +2743,13 @@
     </row>
     <row r="169" spans="1:4">
       <c r="A169">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="B169">
         <v>2</v>
       </c>
       <c r="C169">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D169">
         <v>1</v>
@@ -2757,10 +2757,10 @@
     </row>
     <row r="170" spans="1:4">
       <c r="A170">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="B170">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C170">
         <v>19</v>
@@ -2771,13 +2771,13 @@
     </row>
     <row r="171" spans="1:4">
       <c r="A171">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="B171">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C171">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="D171">
         <v>1</v>
@@ -2785,13 +2785,13 @@
     </row>
     <row r="172" spans="1:4">
       <c r="A172">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="B172">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C172">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D172">
         <v>1</v>
@@ -2799,13 +2799,13 @@
     </row>
     <row r="173" spans="1:4">
       <c r="A173">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B173">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C173">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D173">
         <v>1</v>
@@ -2813,13 +2813,13 @@
     </row>
     <row r="174" spans="1:4">
       <c r="A174">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B174">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C174">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D174">
         <v>1</v>
@@ -2827,13 +2827,13 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="B175">
         <v>4</v>
       </c>
       <c r="C175">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D175">
         <v>1</v>
@@ -2841,13 +2841,13 @@
     </row>
     <row r="176" spans="1:4">
       <c r="A176">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="B176">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C176">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D176">
         <v>1</v>
@@ -2855,13 +2855,13 @@
     </row>
     <row r="177" spans="1:4">
       <c r="A177">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="B177">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C177">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D177">
         <v>1</v>
@@ -2869,13 +2869,13 @@
     </row>
     <row r="178" spans="1:4">
       <c r="A178">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="B178">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C178">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="D178">
         <v>1</v>
@@ -2883,13 +2883,13 @@
     </row>
     <row r="179" spans="1:4">
       <c r="A179">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="B179">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C179">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="D179">
         <v>1</v>
@@ -2897,13 +2897,13 @@
     </row>
     <row r="180" spans="1:4">
       <c r="A180">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="B180">
         <v>4</v>
       </c>
       <c r="C180">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D180">
         <v>1</v>
@@ -2911,13 +2911,13 @@
     </row>
     <row r="181" spans="1:4">
       <c r="A181">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="B181">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C181">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D181">
         <v>1</v>
@@ -2925,13 +2925,13 @@
     </row>
     <row r="182" spans="1:4">
       <c r="A182">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="B182">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C182">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D182">
         <v>1</v>
@@ -2939,13 +2939,13 @@
     </row>
     <row r="183" spans="1:4">
       <c r="A183">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="B183">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C183">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D183">
         <v>1</v>
@@ -2953,10 +2953,10 @@
     </row>
     <row r="184" spans="1:4">
       <c r="A184">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="B184">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C184">
         <v>22</v>
@@ -2967,13 +2967,13 @@
     </row>
     <row r="185" spans="1:4">
       <c r="A185">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="B185">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C185">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="D185">
         <v>1</v>
@@ -2981,13 +2981,13 @@
     </row>
     <row r="186" spans="1:4">
       <c r="A186">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B186">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C186">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D186">
         <v>1</v>
@@ -2995,13 +2995,13 @@
     </row>
     <row r="187" spans="1:4">
       <c r="A187">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B187">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C187">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D187">
         <v>1</v>
@@ -3009,13 +3009,13 @@
     </row>
     <row r="188" spans="1:4">
       <c r="A188">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B188">
         <v>2</v>
       </c>
       <c r="C188">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D188">
         <v>1</v>
@@ -3023,13 +3023,13 @@
     </row>
     <row r="189" spans="1:4">
       <c r="A189">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B189">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C189">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D189">
         <v>1</v>
@@ -3037,13 +3037,13 @@
     </row>
     <row r="190" spans="1:4">
       <c r="A190">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="B190">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C190">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D190">
         <v>1</v>
@@ -3051,13 +3051,13 @@
     </row>
     <row r="191" spans="1:4">
       <c r="A191">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="B191">
         <v>4</v>
       </c>
       <c r="C191">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D191">
         <v>1</v>
@@ -3065,13 +3065,13 @@
     </row>
     <row r="192" spans="1:4">
       <c r="A192">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="B192">
         <v>2</v>
       </c>
       <c r="C192">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D192">
         <v>1</v>
@@ -3079,13 +3079,13 @@
     </row>
     <row r="193" spans="1:4">
       <c r="A193">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="B193">
         <v>2</v>
       </c>
       <c r="C193">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D193">
         <v>1</v>
@@ -3093,13 +3093,13 @@
     </row>
     <row r="194" spans="1:4">
       <c r="A194">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="B194">
         <v>2</v>
       </c>
       <c r="C194">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D194">
         <v>1</v>
@@ -3107,13 +3107,13 @@
     </row>
     <row r="195" spans="1:4">
       <c r="A195">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="B195">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C195">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D195">
         <v>1</v>
@@ -3121,13 +3121,13 @@
     </row>
     <row r="196" spans="1:4">
       <c r="A196">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="B196">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C196">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D196">
         <v>1</v>
@@ -3135,13 +3135,13 @@
     </row>
     <row r="197" spans="1:4">
       <c r="A197">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="B197">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C197">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D197">
         <v>1</v>
@@ -3149,13 +3149,13 @@
     </row>
     <row r="198" spans="1:4">
       <c r="A198">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="B198">
         <v>4</v>
       </c>
       <c r="C198">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D198">
         <v>1</v>
@@ -3163,13 +3163,13 @@
     </row>
     <row r="199" spans="1:4">
       <c r="A199">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="B199">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C199">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D199">
         <v>1</v>
@@ -3177,13 +3177,13 @@
     </row>
     <row r="200" spans="1:4">
       <c r="A200">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="B200">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C200">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D200">
         <v>1</v>
@@ -3191,13 +3191,13 @@
     </row>
     <row r="201" spans="1:4">
       <c r="A201">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="B201">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C201">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D201">
         <v>1</v>
@@ -3205,13 +3205,13 @@
     </row>
     <row r="202" spans="1:4">
       <c r="A202">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="B202">
         <v>4</v>
       </c>
       <c r="C202">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D202">
         <v>1</v>
@@ -3219,13 +3219,13 @@
     </row>
     <row r="203" spans="1:4">
       <c r="A203">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="B203">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C203">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D203">
         <v>1</v>
@@ -3233,13 +3233,13 @@
     </row>
     <row r="204" spans="1:4">
       <c r="A204">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="B204">
         <v>2</v>
       </c>
       <c r="C204">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D204">
         <v>1</v>
@@ -3247,13 +3247,13 @@
     </row>
     <row r="205" spans="1:4">
       <c r="A205">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="B205">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C205">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D205">
         <v>1</v>
@@ -3261,13 +3261,13 @@
     </row>
     <row r="206" spans="1:4">
       <c r="A206">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="B206">
         <v>4</v>
       </c>
       <c r="C206">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D206">
         <v>1</v>
@@ -3275,13 +3275,13 @@
     </row>
     <row r="207" spans="1:4">
       <c r="A207">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="B207">
         <v>4</v>
       </c>
       <c r="C207">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D207">
         <v>1</v>
@@ -3289,13 +3289,13 @@
     </row>
     <row r="208" spans="1:4">
       <c r="A208">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="B208">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C208">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D208">
         <v>1</v>
@@ -3303,13 +3303,13 @@
     </row>
     <row r="209" spans="1:4">
       <c r="A209">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="B209">
         <v>2</v>
       </c>
       <c r="C209">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D209">
         <v>1</v>
@@ -3317,13 +3317,13 @@
     </row>
     <row r="210" spans="1:4">
       <c r="A210">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="B210">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C210">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="D210">
         <v>1</v>
@@ -3331,13 +3331,13 @@
     </row>
     <row r="211" spans="1:4">
       <c r="A211">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="B211">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C211">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D211">
         <v>1</v>
@@ -3345,13 +3345,13 @@
     </row>
     <row r="212" spans="1:4">
       <c r="A212">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="B212">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C212">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D212">
         <v>1</v>
@@ -3359,13 +3359,13 @@
     </row>
     <row r="213" spans="1:4">
       <c r="A213">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="B213">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C213">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D213">
         <v>1</v>
@@ -3373,10 +3373,10 @@
     </row>
     <row r="214" spans="1:4">
       <c r="A214">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="B214">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C214">
         <v>22</v>
@@ -3387,13 +3387,13 @@
     </row>
     <row r="215" spans="1:4">
       <c r="A215">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="B215">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C215">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D215">
         <v>1</v>
@@ -3401,13 +3401,13 @@
     </row>
     <row r="216" spans="1:4">
       <c r="A216">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="B216">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C216">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D216">
         <v>1</v>
@@ -3415,13 +3415,13 @@
     </row>
     <row r="217" spans="1:4">
       <c r="A217">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="B217">
         <v>4</v>
       </c>
       <c r="C217">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D217">
         <v>1</v>
